--- a/educational_modules/forms/app/covid_rumors.xlsx
+++ b/educational_modules/forms/app/covid_rumors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="331">
   <si>
     <t>type</t>
   </si>
@@ -202,7 +202,7 @@
     <t>Reliable Sources</t>
   </si>
   <si>
-    <t>Stay 2 meters away from others, to not come in contact with infected droplets. Do not shake hands or hug. If you are greeting others, wave instead.</t>
+    <t xml:space="preserve">To obtain reliable sources of information, please check with your supervisor. Obtain input from WHO and partner organizations. Always compare information you are hearing to a known reliable source. </t>
   </si>
   <si>
     <t>what_to_do</t>
@@ -340,114 +340,117 @@
     <t>treatment_a_correct</t>
   </si>
   <si>
+    <t xml:space="preserve">Correct Answer: True </t>
+  </si>
+  <si>
+    <t>treatment_correct</t>
+  </si>
+  <si>
+    <t>&lt;span style=“color:green”&gt;You Answered: True&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>${treatment_q} = ‘true’</t>
+  </si>
+  <si>
+    <t>treatment_wrong</t>
+  </si>
+  <si>
+    <t>&lt;span style=“color:red”&gt;You Answered: False&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>${treatment_q} = ‘false’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treatment_a_explination </t>
+  </si>
+  <si>
+    <t>This is true. There is no vaccine to treat or prevent the new coronavirus, and there are no proven medicines that specifically treat the new coronavirus.</t>
+  </si>
+  <si>
+    <t>treatment2_qq</t>
+  </si>
+  <si>
+    <t>treatment2_q</t>
+  </si>
+  <si>
+    <t>Maize meal will decrease your chance of dying from COVID</t>
+  </si>
+  <si>
+    <t>treatment2_a</t>
+  </si>
+  <si>
+    <t>treatment2_a_correct</t>
+  </si>
+  <si>
+    <t>treatment2_correct</t>
+  </si>
+  <si>
+    <t>${treatment2_q} = ‘false’</t>
+  </si>
+  <si>
+    <t>treatment2_wrong</t>
+  </si>
+  <si>
+    <t>${treatment2_q} = ‘true’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treatment2_a_explination </t>
+  </si>
+  <si>
+    <t>This is not true. Maize meal does not decrease chances of getting sick with COVID-19 or dying from the disease. Because this is a new virus, there are still no proven medicines that fight the virus. It can be dangerous to take medicines that are unproven against a disease.</t>
+  </si>
+  <si>
+    <t>treatment3_qq</t>
+  </si>
+  <si>
+    <t>treatment3_q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVID is like Malaria </t>
+  </si>
+  <si>
+    <t>treatment3_a</t>
+  </si>
+  <si>
+    <t>treatment3_a_correct</t>
+  </si>
+  <si>
+    <t>treatment3_correct</t>
+  </si>
+  <si>
+    <t>${treatment3_q} = ‘false’</t>
+  </si>
+  <si>
+    <t>treatment3_wrong</t>
+  </si>
+  <si>
+    <t>${treatment3_q} = ‘true’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treatment3_a_explination </t>
+  </si>
+  <si>
+    <t>This is not true. COVID-19 is different to malaria; it is caused by a virus whereas malaria is caused by a parasite. This means the way the coronavirus enters your body and attacks your cells is completely different to the malaria parasite, and the treatments are also different. The coronavirus that causes COVID-19 is a new virus and so far there are no proven medicines that specifically treat it. You may have heard that an old medicine used to treat malaria is being tested to see if it works against the coronavirus, but it has not yet been proven to work. In the meantime, if you take the wrong medicine for the coronavirus, it can cause serious harm to your health.</t>
+  </si>
+  <si>
+    <t>whos_at_risk2_qq</t>
+  </si>
+  <si>
+    <t>whos_at_risk2_q</t>
+  </si>
+  <si>
+    <t>The coronavirus can survive in Africa’s warm climate</t>
+  </si>
+  <si>
+    <t>whos_at_risk2_a</t>
+  </si>
+  <si>
+    <t>whos_at_risk2_a_correct</t>
+  </si>
+  <si>
     <t>Correct Answer: True</t>
   </si>
   <si>
-    <t>treatment_correct</t>
-  </si>
-  <si>
-    <t>&lt;span style=“color:green”&gt;You Answered: True&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>${treatment_q} = ‘true’</t>
-  </si>
-  <si>
-    <t>treatment_wrong</t>
-  </si>
-  <si>
-    <t>&lt;span style=“color:red”&gt;You Answered: False&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>${treatment_q} = ‘false’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treatment_a_explination </t>
-  </si>
-  <si>
-    <t>This is true. There is no vaccine to treat or prevent the new coronavirus, and there are no proven medicines that specifically treat the new coronavirus.</t>
-  </si>
-  <si>
-    <t>treatment2_qq</t>
-  </si>
-  <si>
-    <t>treatment2_q</t>
-  </si>
-  <si>
-    <t>Maize meal will decrease your chance of dying from COVID</t>
-  </si>
-  <si>
-    <t>treatment2_a</t>
-  </si>
-  <si>
-    <t>treatment2_a_correct</t>
-  </si>
-  <si>
-    <t>treatment2_correct</t>
-  </si>
-  <si>
-    <t>${treatment2_q} = ‘false’</t>
-  </si>
-  <si>
-    <t>treatment2_wrong</t>
-  </si>
-  <si>
-    <t>${treatment2_q} = ‘true’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treatment2_a_explination </t>
-  </si>
-  <si>
-    <t>This is not true. Maize meal does not decrease chances of getting sick with COVID-19 or dying from the disease. Because this is a new virus, there are still no proven medicines that fight the virus. It can be dangerous to take medicines that are unproven against a disease.</t>
-  </si>
-  <si>
-    <t>treatment3_qq</t>
-  </si>
-  <si>
-    <t>treatment3_q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COVID is like Maleria </t>
-  </si>
-  <si>
-    <t>treatment3_a</t>
-  </si>
-  <si>
-    <t>treatment3_a_correct</t>
-  </si>
-  <si>
-    <t>treatment3_correct</t>
-  </si>
-  <si>
-    <t>${treatment3_q} = ‘false’</t>
-  </si>
-  <si>
-    <t>treatment3_wrong</t>
-  </si>
-  <si>
-    <t>${treatment3_q} = ‘true’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treatment3_a_explination </t>
-  </si>
-  <si>
-    <t>This is not true. COVID-19 is different to malaria; it is caused by a virus whereas malaria is caused by a parasite. This means the way the coronavirus enters your body and attacks your cells is completely different to the malaria parasite, and the treatments are also different. The coronavirus that causes COVID-19 is a new virus and so far there are no proven medicines that specifically treat it. You may have heard that an old medicine used to treat malaria is being tested to see if it works against the coronavirus, but it has not yet been proven to work. In the meantime, if you take the wrong medicine for the coronavirus, it can cause serious harm to your health.</t>
-  </si>
-  <si>
-    <t>whos_at_risk2_qq</t>
-  </si>
-  <si>
-    <t>whos_at_risk2_q</t>
-  </si>
-  <si>
-    <t>The coronavirus can survive in Africa’s warm climate</t>
-  </si>
-  <si>
-    <t>whos_at_risk2_a</t>
-  </si>
-  <si>
-    <t>whos_at_risk2_a_correct</t>
-  </si>
-  <si>
     <t>whos_at_risk2_correct</t>
   </si>
   <si>
@@ -481,15 +484,18 @@
     <t>prevention_a</t>
   </si>
   <si>
+    <t xml:space="preserve">Quiz - Prevention </t>
+  </si>
+  <si>
     <t>prevention_a_correct</t>
   </si>
   <si>
-    <t xml:space="preserve">Correct Answer: False </t>
-  </si>
-  <si>
     <t>prevention_correct</t>
   </si>
   <si>
+    <t>&lt;span style=“color:green”&gt;You Answered: False &lt;/span&gt;</t>
+  </si>
+  <si>
     <t>${prevention_q} = ‘false’</t>
   </si>
   <si>
@@ -514,16 +520,13 @@
     <t>Remember, as health workers we have a responsibility to report myths and rumors - and to ask questions if we are not sure.</t>
   </si>
   <si>
-    <t>user_myth_q</t>
+    <t>text</t>
+  </si>
+  <si>
+    <t>user_myth</t>
   </si>
   <si>
     <t>Do you have any myths to report or questions to ask?</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>user_myth</t>
   </si>
   <si>
     <t>list_name</t>
@@ -2637,7 +2640,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AK109"/>
+  <dimension ref="A1:AK108"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -5337,9 +5340,7 @@
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
-      <c r="J60" t="s" s="24">
-        <v>89</v>
-      </c>
+      <c r="J60" s="24"/>
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
       <c r="M60" s="25"/>
@@ -6571,7 +6572,7 @@
         <v>143</v>
       </c>
       <c r="C88" t="s" s="24">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
@@ -6615,7 +6616,7 @@
         <v>54</v>
       </c>
       <c r="B89" t="s" s="23">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C89" t="s" s="24">
         <v>110</v>
@@ -6628,7 +6629,7 @@
       <c r="I89" s="15"/>
       <c r="J89" s="24"/>
       <c r="K89" t="s" s="24">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L89" s="24"/>
       <c r="M89" s="25"/>
@@ -6662,7 +6663,7 @@
         <v>54</v>
       </c>
       <c r="B90" t="s" s="23">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C90" t="s" s="24">
         <v>113</v>
@@ -6675,7 +6676,7 @@
       <c r="I90" s="15"/>
       <c r="J90" s="24"/>
       <c r="K90" t="s" s="24">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L90" s="24"/>
       <c r="M90" s="25"/>
@@ -6709,10 +6710,10 @@
         <v>54</v>
       </c>
       <c r="B91" t="s" s="23">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C91" t="s" s="27">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
@@ -6834,10 +6835,10 @@
         <v>35</v>
       </c>
       <c r="B94" t="s" s="23">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C94" t="s" s="24">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
@@ -6881,10 +6882,10 @@
         <v>86</v>
       </c>
       <c r="B95" t="s" s="23">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C95" t="s" s="24">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D95" s="15"/>
       <c r="E95" s="15"/>
@@ -7008,10 +7009,10 @@
         <v>35</v>
       </c>
       <c r="B98" t="s" s="23">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C98" t="s" s="24">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
@@ -7055,10 +7056,10 @@
         <v>54</v>
       </c>
       <c r="B99" t="s" s="23">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C99" t="s" s="24">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
@@ -7102,10 +7103,10 @@
         <v>54</v>
       </c>
       <c r="B100" t="s" s="23">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C100" t="s" s="24">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
@@ -7115,7 +7116,7 @@
       <c r="I100" s="15"/>
       <c r="J100" s="24"/>
       <c r="K100" t="s" s="24">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L100" s="24"/>
       <c r="M100" s="25"/>
@@ -7149,7 +7150,7 @@
         <v>54</v>
       </c>
       <c r="B101" t="s" s="23">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C101" t="s" s="24">
         <v>98</v>
@@ -7162,7 +7163,7 @@
       <c r="I101" s="15"/>
       <c r="J101" s="24"/>
       <c r="K101" t="s" s="24">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L101" s="24"/>
       <c r="M101" s="25"/>
@@ -7196,10 +7197,10 @@
         <v>54</v>
       </c>
       <c r="B102" t="s" s="23">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C102" t="s" s="27">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
@@ -7321,10 +7322,10 @@
         <v>35</v>
       </c>
       <c r="B105" t="s" s="23">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C105" t="s" s="24">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D105" s="15"/>
       <c r="E105" s="15"/>
@@ -7368,10 +7369,10 @@
         <v>54</v>
       </c>
       <c r="B106" t="s" s="23">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C106" t="s" s="24">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D106" s="15"/>
       <c r="E106" s="15"/>
@@ -7412,13 +7413,13 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" t="s" s="22">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="B107" t="s" s="23">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C107" t="s" s="27">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
@@ -7456,92 +7457,49 @@
       <c r="AK107" s="14"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" t="s" s="22">
-        <v>168</v>
-      </c>
-      <c r="B108" t="s" s="23">
-        <v>169</v>
-      </c>
-      <c r="C108" s="27"/>
+      <c r="A108" t="s" s="33">
+        <v>48</v>
+      </c>
+      <c r="B108" s="34"/>
+      <c r="C108" s="35"/>
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
       <c r="G108" s="15"/>
       <c r="H108" s="15"/>
       <c r="I108" s="15"/>
-      <c r="J108" s="24"/>
-      <c r="K108" s="25"/>
-      <c r="L108" s="24"/>
-      <c r="M108" s="25"/>
-      <c r="N108" s="25"/>
+      <c r="J108" s="35"/>
+      <c r="K108" s="35"/>
+      <c r="L108" s="35"/>
+      <c r="M108" s="35"/>
+      <c r="N108" s="35"/>
       <c r="O108" s="15"/>
       <c r="P108" s="15"/>
       <c r="Q108" s="15"/>
       <c r="R108" s="15"/>
       <c r="S108" s="15"/>
       <c r="T108" s="15"/>
-      <c r="U108" s="25"/>
-      <c r="V108" s="25"/>
-      <c r="W108" s="25"/>
+      <c r="U108" s="35"/>
+      <c r="V108" s="35"/>
+      <c r="W108" s="35"/>
       <c r="X108" s="15"/>
       <c r="Y108" s="15"/>
       <c r="Z108" s="15"/>
       <c r="AA108" s="15"/>
       <c r="AB108" s="15"/>
       <c r="AC108" s="15"/>
-      <c r="AD108" s="25"/>
-      <c r="AE108" s="24"/>
-      <c r="AF108" s="25"/>
-      <c r="AG108" s="25"/>
-      <c r="AH108" s="25"/>
-      <c r="AI108" s="25"/>
-      <c r="AJ108" s="25"/>
-      <c r="AK108" s="14"/>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" t="s" s="33">
-        <v>48</v>
-      </c>
-      <c r="B109" s="34"/>
-      <c r="C109" s="35"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="35"/>
-      <c r="K109" s="35"/>
-      <c r="L109" s="35"/>
-      <c r="M109" s="35"/>
-      <c r="N109" s="35"/>
-      <c r="O109" s="15"/>
-      <c r="P109" s="15"/>
-      <c r="Q109" s="15"/>
-      <c r="R109" s="15"/>
-      <c r="S109" s="15"/>
-      <c r="T109" s="15"/>
-      <c r="U109" s="35"/>
-      <c r="V109" s="35"/>
-      <c r="W109" s="35"/>
-      <c r="X109" s="15"/>
-      <c r="Y109" s="15"/>
-      <c r="Z109" s="15"/>
-      <c r="AA109" s="15"/>
-      <c r="AB109" s="15"/>
-      <c r="AC109" s="15"/>
-      <c r="AD109" s="35"/>
-      <c r="AE109" s="35"/>
-      <c r="AF109" s="35"/>
-      <c r="AG109" s="35"/>
-      <c r="AH109" s="35"/>
-      <c r="AI109" s="35"/>
-      <c r="AJ109" s="35"/>
-      <c r="AK109" s="36"/>
+      <c r="AD108" s="35"/>
+      <c r="AE108" s="35"/>
+      <c r="AF108" s="35"/>
+      <c r="AG108" s="35"/>
+      <c r="AH108" s="35"/>
+      <c r="AI108" s="35"/>
+      <c r="AJ108" s="35"/>
+      <c r="AK108" s="36"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J7 J9 J11:J13 J15:J17 J19:J21 J23:J25 J35:J37 J39:J41 J43:J44 J48:J52 J54:J55 J59:J63 J65:J66 J70 J72:J74 J76 J81 J83:J85 J87:J88 J92 J94:J96 J98:J99 J103 J105:J106 J109">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J7 J9 J11:J13 J15:J17 J19:J21 J23:J25 J35:J37 J39:J41 J43:J44 J48:J52 J54:J55 J59 J61:J63 J65:J66 J70 J72:J74 J76 J81 J83:J85 J87:J88 J92 J94:J96 J98:J99 J103 J105:J106 J108">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7571,7 +7529,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s" s="43">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s" s="44">
         <v>1</v>
@@ -7613,13 +7571,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s" s="54">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s" s="54">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s" s="55">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
@@ -7643,13 +7601,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s" s="54">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s" s="54">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s" s="58">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D3" s="57"/>
       <c r="E3" s="57"/>
@@ -7697,13 +7655,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s" s="54">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s" s="54">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s" s="58">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
@@ -7727,13 +7685,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s" s="54">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s" s="54">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s" s="58">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D6" s="53"/>
       <c r="E6" s="53"/>
@@ -7781,13 +7739,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s" s="54">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s" s="54">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s" s="58">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
@@ -7811,13 +7769,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="s" s="54">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s" s="54">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s" s="58">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D9" s="53"/>
       <c r="E9" s="53"/>
@@ -7841,13 +7799,13 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" t="s" s="54">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B10" t="s" s="54">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s" s="58">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D10" s="53"/>
       <c r="E10" s="53"/>
@@ -7895,13 +7853,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="s" s="54">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B12" t="s" s="54">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C12" t="s" s="58">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="53"/>
@@ -7925,13 +7883,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" t="s" s="54">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B13" t="s" s="54">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C13" t="s" s="58">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="53"/>
@@ -7979,13 +7937,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" t="s" s="54">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B15" t="s" s="54">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C15" t="s" s="58">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D15" s="53"/>
       <c r="E15" s="53"/>
@@ -8009,13 +7967,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" t="s" s="54">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s" s="54">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C16" t="s" s="58">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D16" s="53"/>
       <c r="E16" s="53"/>
@@ -8063,13 +8021,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" t="s" s="54">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="54">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C18" t="s" s="58">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D18" s="53"/>
       <c r="E18" s="53"/>
@@ -8093,13 +8051,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" t="s" s="54">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="54">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C19" t="s" s="58">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D19" s="53"/>
       <c r="E19" s="53"/>
@@ -8147,13 +8105,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" t="s" s="54">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="54">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C21" t="s" s="58">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D21" s="53"/>
       <c r="E21" s="53"/>
@@ -8177,13 +8135,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" t="s" s="54">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s" s="54">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C22" t="s" s="58">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D22" s="53"/>
       <c r="E22" s="53"/>
@@ -9218,25 +9176,25 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s" s="43">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s" s="43">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C1" t="s" s="43">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D1" t="s" s="43">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E1" t="s" s="43">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F1" t="s" s="43">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G1" t="s" s="60">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H1" s="61"/>
       <c r="I1" s="61"/>
@@ -9260,24 +9218,24 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s" s="62">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s" s="62">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C2" s="63">
         <f>NOW()</f>
-        <v>43962.681018518517</v>
+        <v>43968.949224537035</v>
       </c>
       <c r="D2" t="s" s="58">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s" s="58">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F2" s="53"/>
       <c r="G2" t="s" s="64">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
@@ -9550,7 +9508,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s" s="43">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s" s="44">
         <v>1</v>
@@ -9593,13 +9551,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s" s="58">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s" s="58">
         <v>89</v>
       </c>
       <c r="C2" t="s" s="55">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
@@ -9624,13 +9582,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s" s="58">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B3" t="s" s="58">
         <v>56</v>
       </c>
       <c r="C3" t="s" s="58">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D3" s="57"/>
       <c r="E3" s="57"/>
@@ -9680,13 +9638,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s" s="58">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s" s="58">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s" s="58">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D5" s="57"/>
       <c r="E5" s="57"/>
@@ -9711,13 +9669,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s" s="58">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s" s="58">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C6" t="s" s="58">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D6" s="57"/>
       <c r="E6" s="57"/>
@@ -9742,13 +9700,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s" s="58">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s" s="58">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C7" t="s" s="58">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D7" s="57"/>
       <c r="E7" s="57"/>
@@ -9773,13 +9731,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s" s="58">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B8" t="s" s="58">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C8" t="s" s="58">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D8" s="57"/>
       <c r="E8" s="57"/>
@@ -9804,13 +9762,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="s" s="58">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B9" t="s" s="58">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C9" t="s" s="58">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D9" s="57"/>
       <c r="E9" s="57"/>
@@ -9860,13 +9818,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s" s="58">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B11" t="s" s="58">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C11" t="s" s="58">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D11" s="57"/>
       <c r="E11" s="57"/>
@@ -9891,13 +9849,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="s" s="58">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B12" t="s" s="58">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C12" t="s" s="58">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D12" s="57"/>
       <c r="E12" s="57"/>
@@ -9922,13 +9880,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" t="s" s="58">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B13" t="s" s="58">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C13" t="s" s="58">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D13" s="57"/>
       <c r="E13" s="57"/>
@@ -9953,13 +9911,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" t="s" s="58">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B14" t="s" s="58">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C14" t="s" s="58">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D14" s="57"/>
       <c r="E14" s="57"/>
@@ -9984,13 +9942,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" t="s" s="58">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B15" t="s" s="58">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C15" t="s" s="58">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D15" s="57"/>
       <c r="E15" s="57"/>
@@ -10015,13 +9973,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" t="s" s="58">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B16" t="s" s="58">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C16" t="s" s="58">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D16" s="57"/>
       <c r="E16" s="57"/>
@@ -10071,13 +10029,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" t="s" s="58">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B18" t="s" s="58">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C18" t="s" s="58">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
@@ -10102,13 +10060,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" t="s" s="58">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s" s="58">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C19" t="s" s="58">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
@@ -10133,13 +10091,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" t="s" s="58">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s" s="58">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C20" t="s" s="58">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D20" s="57"/>
       <c r="E20" s="57"/>
@@ -10164,13 +10122,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" t="s" s="58">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B21" t="s" s="58">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C21" t="s" s="58">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D21" s="57"/>
       <c r="E21" s="57"/>
@@ -10195,13 +10153,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" t="s" s="58">
+        <v>248</v>
+      </c>
+      <c r="B22" t="s" s="58">
+        <v>246</v>
+      </c>
+      <c r="C22" t="s" s="58">
         <v>247</v>
-      </c>
-      <c r="B22" t="s" s="58">
-        <v>245</v>
-      </c>
-      <c r="C22" t="s" s="58">
-        <v>246</v>
       </c>
       <c r="D22" s="57"/>
       <c r="E22" s="57"/>
@@ -10226,13 +10184,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" t="s" s="58">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="58">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C23" t="s" s="58">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
@@ -10282,13 +10240,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" t="s" s="58">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="58">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C25" t="s" s="58">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D25" s="57"/>
       <c r="E25" s="57"/>
@@ -10313,13 +10271,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" t="s" s="58">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="58">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C26" t="s" s="58">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D26" s="57"/>
       <c r="E26" s="57"/>
@@ -10344,13 +10302,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" t="s" s="58">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="58">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C27" t="s" s="58">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
@@ -10375,13 +10333,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" t="s" s="58">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="58">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C28" t="s" s="58">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
@@ -10406,13 +10364,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" t="s" s="58">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s" s="58">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C29" t="s" s="58">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D29" s="57"/>
       <c r="E29" s="57"/>
@@ -10462,13 +10420,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" t="s" s="58">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="58">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C31" t="s" s="58">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D31" s="57"/>
       <c r="E31" s="57"/>
@@ -10493,13 +10451,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" t="s" s="58">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s" s="58">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C32" t="s" s="58">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
@@ -10549,14 +10507,14 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s" s="54">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s" s="54">
         <f>SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34,"(",""),")",""))," ","_")</f>
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C34" t="s" s="54">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D34" s="53"/>
       <c r="E34" s="53"/>
@@ -10581,14 +10539,14 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s" s="54">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B35" t="s" s="54">
         <f>SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C35,"(",""),")",""))," ","_")</f>
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C35" t="s" s="54">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D35" s="53"/>
       <c r="E35" s="53"/>
@@ -10613,14 +10571,14 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s" s="54">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B36" t="s" s="54">
         <f>SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C36,"(",""),")",""))," ","_")</f>
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C36" t="s" s="54">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D36" s="53"/>
       <c r="E36" s="53"/>
@@ -10645,14 +10603,14 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s" s="54">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B37" t="s" s="54">
         <f>SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C37,"(",""),")",""))," ","_")</f>
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C37" t="s" s="54">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D37" s="53"/>
       <c r="E37" s="53"/>
@@ -10677,14 +10635,14 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s" s="54">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B38" t="s" s="54">
         <f>SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C38,"(",""),")",""))," ","_")</f>
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C38" t="s" s="54">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D38" s="53"/>
       <c r="E38" s="53"/>
@@ -10709,14 +10667,14 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s" s="54">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B39" t="s" s="54">
         <f>SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C39,"(",""),")",""))," ","_")</f>
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C39" t="s" s="54">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D39" s="53"/>
       <c r="E39" s="53"/>
@@ -10741,14 +10699,14 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s" s="54">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B40" t="s" s="54">
         <f>SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C40,"(",""),")",""))," ","_")</f>
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C40" t="s" s="54">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D40" s="53"/>
       <c r="E40" s="53"/>
@@ -10773,14 +10731,14 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s" s="54">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B41" t="s" s="54">
         <f>SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C41,"(",""),")",""))," ","_")</f>
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C41" t="s" s="54">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D41" s="53"/>
       <c r="E41" s="53"/>
@@ -10805,14 +10763,14 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s" s="54">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B42" t="s" s="54">
         <f>SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C42,"(",""),")",""))," ","_")</f>
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C42" t="s" s="54">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D42" s="53"/>
       <c r="E42" s="53"/>
@@ -10837,13 +10795,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s" s="54">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B43" t="s" s="54">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C43" t="s" s="54">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D43" s="53"/>
       <c r="E43" s="53"/>
@@ -10895,14 +10853,14 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s" s="54">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B45" t="s" s="54">
         <f>SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C45,"(",""),")",""))," ","_")</f>
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C45" t="s" s="54">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D45" s="53"/>
       <c r="E45" s="53"/>
@@ -10927,14 +10885,14 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s" s="54">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B46" t="s" s="54">
         <f>SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C46,"(",""),")",""))," ","_")</f>
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C46" t="s" s="54">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D46" s="53"/>
       <c r="E46" s="53"/>
@@ -10986,13 +10944,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" t="s" s="58">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B48" t="s" s="58">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C48" t="s" s="58">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D48" s="57"/>
       <c r="E48" s="57"/>
@@ -11017,13 +10975,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" t="s" s="58">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B49" t="s" s="58">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C49" t="s" s="58">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D49" s="57"/>
       <c r="E49" s="57"/>
@@ -11073,13 +11031,13 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s" s="54">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B51" t="s" s="54">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C51" t="s" s="54">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D51" s="53"/>
       <c r="E51" s="53"/>
@@ -11104,13 +11062,13 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s" s="54">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B52" t="s" s="54">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C52" t="s" s="54">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D52" s="53"/>
       <c r="E52" s="53"/>
@@ -11135,13 +11093,13 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s" s="54">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B53" t="s" s="54">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C53" t="s" s="54">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D53" s="53"/>
       <c r="E53" s="53"/>
@@ -11166,13 +11124,13 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s" s="54">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B54" t="s" s="54">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C54" t="s" s="54">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D54" s="53"/>
       <c r="E54" s="53"/>
@@ -11197,13 +11155,13 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s" s="54">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B55" t="s" s="54">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C55" t="s" s="54">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D55" s="53"/>
       <c r="E55" s="53"/>
@@ -11228,13 +11186,13 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s" s="54">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B56" t="s" s="54">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C56" t="s" s="54">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D56" s="53"/>
       <c r="E56" s="53"/>
@@ -11284,13 +11242,13 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" t="s" s="58">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B58" t="s" s="58">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C58" t="s" s="58">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D58" s="53"/>
       <c r="E58" s="53"/>
@@ -11315,13 +11273,13 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" t="s" s="58">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B59" t="s" s="58">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C59" t="s" s="58">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D59" s="53"/>
       <c r="E59" s="53"/>
@@ -11346,13 +11304,13 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" t="s" s="58">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B60" t="s" s="58">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C60" t="s" s="58">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D60" s="53"/>
       <c r="E60" s="53"/>
@@ -11377,13 +11335,13 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" t="s" s="58">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B61" t="s" s="58">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C61" t="s" s="58">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D61" s="53"/>
       <c r="E61" s="53"/>
@@ -11433,13 +11391,13 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" t="s" s="54">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B63" t="s" s="54">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C63" t="s" s="58">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D63" s="53"/>
       <c r="E63" s="53"/>
@@ -11464,13 +11422,13 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" t="s" s="54">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B64" t="s" s="54">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C64" t="s" s="58">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D64" s="53"/>
       <c r="E64" s="53"/>
@@ -11495,13 +11453,13 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" t="s" s="54">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B65" t="s" s="54">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C65" t="s" s="58">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D65" s="53"/>
       <c r="E65" s="53"/>
@@ -11526,13 +11484,13 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" t="s" s="54">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B66" t="s" s="54">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C66" t="s" s="58">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D66" s="53"/>
       <c r="E66" s="53"/>
@@ -11557,13 +11515,13 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" t="s" s="54">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B67" t="s" s="54">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C67" t="s" s="58">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D67" s="53"/>
       <c r="E67" s="53"/>
@@ -11613,13 +11571,13 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s" s="54">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B69" t="s" s="54">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C69" t="s" s="54">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D69" s="53"/>
       <c r="E69" s="53"/>
@@ -11644,13 +11602,13 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s" s="54">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B70" t="s" s="54">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C70" t="s" s="54">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D70" s="53"/>
       <c r="E70" s="53"/>
@@ -11700,13 +11658,13 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s" s="54">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B72" t="s" s="67">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C72" t="s" s="68">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D72" s="52"/>
       <c r="E72" s="53"/>
@@ -11731,13 +11689,13 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s" s="54">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B73" t="s" s="54">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C73" t="s" s="69">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D73" s="53"/>
       <c r="E73" s="53"/>
@@ -11762,13 +11720,13 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s" s="54">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B74" t="s" s="54">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C74" t="s" s="54">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D74" s="53"/>
       <c r="E74" s="53"/>
